--- a/CARD.xlsx
+++ b/CARD.xlsx
@@ -500,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AO9" sqref="AO9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -771,10 +771,10 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H4">
         <v>4</v>
@@ -902,7 +902,7 @@
         <v>27</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -914,7 +914,7 @@
         <v>4</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -926,7 +926,7 @@
         <v>4</v>
       </c>
       <c r="M5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N5">
         <v>4</v>
@@ -938,7 +938,7 @@
         <v>4</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="R5">
         <v>4</v>
@@ -1036,7 +1036,7 @@
         <v>27</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6">
         <v>4</v>
@@ -1170,7 +1170,7 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F7">
         <v>4</v>
@@ -1304,7 +1304,7 @@
         <v>27</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F8">
         <v>4</v>
@@ -1438,7 +1438,7 @@
         <v>27</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -1572,7 +1572,7 @@
         <v>27</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="F10">
         <v>4</v>
@@ -1706,7 +1706,7 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="F11">
         <v>4</v>
